--- a/Latest Version/Assets/Data Log.xlsx
+++ b/Latest Version/Assets/Data Log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Late" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Datetime</t>
   </si>
@@ -23,31 +23,52 @@
     <t>Student ID</t>
   </si>
   <si>
-    <t>T0123456G</t>
-  </si>
-  <si>
-    <t>HI</t>
+    <t>13/10/2018 12:11</t>
+  </si>
+  <si>
+    <t>TESTING3</t>
+  </si>
+  <si>
+    <t>TESTING5</t>
+  </si>
+  <si>
+    <t>13/10/2018 10:58</t>
+  </si>
+  <si>
+    <t>13/10/2018 11:00</t>
+  </si>
+  <si>
+    <t>TESTING2</t>
+  </si>
+  <si>
+    <t>TESTING1</t>
+  </si>
+  <si>
+    <t>TESTING6</t>
+  </si>
+  <si>
+    <t>13/10/2018 11:19</t>
+  </si>
+  <si>
+    <t>T0123456A</t>
+  </si>
+  <si>
+    <t>TESTING4</t>
+  </si>
+  <si>
+    <t>13/10/2018 11:20</t>
   </si>
   <si>
     <t>asd</t>
   </si>
   <si>
-    <t>T0123456B</t>
-  </si>
-  <si>
-    <t>T0123456A</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>T0123456H</t>
-  </si>
-  <si>
-    <t>Joel lim</t>
-  </si>
-  <si>
-    <t>T0123456F</t>
+    <t>13/10/2018 11:23</t>
+  </si>
+  <si>
+    <t>13/10/2018 12:07</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -94,10 +115,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -376,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -395,139 +415,119 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="n">
-        <v>43369.84272373848</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="n">
-        <v>43369.84285485228</v>
-      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="n">
-        <v>43369.8608087431</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="2" t="n"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="n">
-        <v>43369.92522356272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2" t="n"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="n">
-        <v>43373.89063852193</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="n">
-        <v>43373.8914093247</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="n"/>
+      <c r="A8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="n"/>
+      <c r="A9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="n"/>
+      <c r="A10" s="2" t="n"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="n"/>
+      <c r="A11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="n"/>
+      <c r="A12" s="2" t="n"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="n"/>
+      <c r="A13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="n"/>
+      <c r="A14" s="2" t="n"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="n"/>
+      <c r="A15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="n"/>
+      <c r="A16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="n"/>
+      <c r="A17" s="2" t="n"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="n"/>
+      <c r="A18" s="2" t="n"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="n"/>
+      <c r="A19" s="2" t="n"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="n"/>
+      <c r="A20" s="2" t="n"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="n"/>
+      <c r="A21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="n"/>
+      <c r="A22" s="2" t="n"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="n"/>
+      <c r="A23" s="2" t="n"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="n"/>
+      <c r="A24" s="2" t="n"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="n"/>
+      <c r="A25" s="2" t="n"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="n"/>
+      <c r="A26" s="2" t="n"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3" t="n"/>
+      <c r="A27" s="2" t="n"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="n"/>
+      <c r="A28" s="2" t="n"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="n"/>
+      <c r="A29" s="2" t="n"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="n"/>
+      <c r="A30" s="2" t="n"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="n"/>
+      <c r="A31" s="2" t="n"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="n"/>
+      <c r="A32" s="2" t="n"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3" t="n"/>
+      <c r="A33" s="2" t="n"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="n"/>
+      <c r="A34" s="2" t="n"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="n"/>
+      <c r="A35" s="2" t="n"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="n"/>
+      <c r="A36" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -543,8 +543,8 @@
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -562,206 +562,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="n">
-        <v>43369.84221392282</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="n">
-        <v>43369.84231707455</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="n">
-        <v>43369.85986791293</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="n">
-        <v>43369.89321477014</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="n">
-        <v>43369.89391578281</v>
-      </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="n">
-        <v>43369.92433884599</v>
-      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="n">
-        <v>43369.92453394643</v>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="n">
-        <v>43373.89189247486</v>
-      </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="n"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="n"/>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="n"/>
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="n"/>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="n"/>
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="n"/>
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="n"/>
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="n"/>
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="n"/>
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="n"/>
+      <c r="A19" s="2" t="n"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="n"/>
+      <c r="A20" s="2" t="n"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="n"/>
+      <c r="A21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="n"/>
+      <c r="A22" s="2" t="n"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="n"/>
+      <c r="A23" s="2" t="n"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="n"/>
+      <c r="A24" s="2" t="n"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="n"/>
+      <c r="A25" s="2" t="n"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="n"/>
+      <c r="A26" s="2" t="n"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3" t="n"/>
+      <c r="A27" s="2" t="n"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="n"/>
+      <c r="A28" s="2" t="n"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="n"/>
+      <c r="A29" s="2" t="n"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="n"/>
+      <c r="A30" s="2" t="n"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="n"/>
+      <c r="A31" s="2" t="n"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="n"/>
+      <c r="A32" s="2" t="n"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3" t="n"/>
+      <c r="A33" s="2" t="n"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="n"/>
+      <c r="A34" s="2" t="n"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="n"/>
+      <c r="A35" s="2" t="n"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="n"/>
+      <c r="A36" s="2" t="n"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="n"/>
+      <c r="A37" s="2" t="n"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3" t="n"/>
+      <c r="A38" s="2" t="n"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3" t="n"/>
+      <c r="A39" s="2" t="n"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="n"/>
+      <c r="A40" s="2" t="n"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3" t="n"/>
+      <c r="A41" s="2" t="n"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="n"/>
+      <c r="A42" s="2" t="n"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="n"/>
+      <c r="A43" s="2" t="n"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="n"/>
+      <c r="A44" s="2" t="n"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3" t="n"/>
+      <c r="A45" s="2" t="n"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="n"/>
+      <c r="A46" s="2" t="n"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3" t="n"/>
+      <c r="A47" s="2" t="n"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="n"/>
+      <c r="A48" s="2" t="n"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3" t="n"/>
+      <c r="A49" s="2" t="n"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="n"/>
+      <c r="A50" s="2" t="n"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3" t="n"/>
+      <c r="A51" s="2" t="n"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="n"/>
+      <c r="A52" s="2" t="n"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3" t="n"/>
+      <c r="A53" s="2" t="n"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="n"/>
+      <c r="A54" s="2" t="n"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3" t="n"/>
+      <c r="A55" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Latest Version/Assets/Data Log.xlsx
+++ b/Latest Version/Assets/Data Log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Late" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Datetime</t>
   </si>
@@ -32,6 +32,18 @@
     <t>TESTING5</t>
   </si>
   <si>
+    <t>13/10/2018 22:41</t>
+  </si>
+  <si>
+    <t>T0121212Y</t>
+  </si>
+  <si>
+    <t>13/10/2018 22:45</t>
+  </si>
+  <si>
+    <t>TESTING1</t>
+  </si>
+  <si>
     <t>13/10/2018 10:58</t>
   </si>
   <si>
@@ -41,9 +53,6 @@
     <t>TESTING2</t>
   </si>
   <si>
-    <t>TESTING1</t>
-  </si>
-  <si>
     <t>TESTING6</t>
   </si>
   <si>
@@ -69,6 +78,12 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>13/10/2018 22:39</t>
+  </si>
+  <si>
+    <t>31/10/2018 20:23</t>
   </si>
 </sst>
 </file>
@@ -396,8 +411,8 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -431,13 +446,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="n"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="n"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="n"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="n"/>
@@ -543,7 +573,7 @@
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +593,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -571,15 +601,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -587,7 +617,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -595,15 +625,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -611,7 +641,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -619,42 +649,42 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -662,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -670,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -678,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -686,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -698,10 +728,20 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="n"/>
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="n"/>
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="n"/>

--- a/Latest Version/Assets/Data Log.xlsx
+++ b/Latest Version/Assets/Data Log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Late" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Datetime</t>
   </si>
@@ -23,67 +23,148 @@
     <t>Student ID</t>
   </si>
   <si>
-    <t>13/10/2018 12:11</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>04/11/2018 16:44</t>
+  </si>
+  <si>
+    <t>TESTING1</t>
+  </si>
+  <si>
+    <t>Jotham A</t>
+  </si>
+  <si>
+    <t>1A</t>
   </si>
   <si>
     <t>TESTING3</t>
   </si>
   <si>
+    <t>Jotham C</t>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
     <t>TESTING5</t>
   </si>
   <si>
-    <t>13/10/2018 22:41</t>
-  </si>
-  <si>
-    <t>T0121212Y</t>
-  </si>
-  <si>
-    <t>13/10/2018 22:45</t>
-  </si>
-  <si>
-    <t>TESTING1</t>
-  </si>
-  <si>
-    <t>13/10/2018 10:58</t>
-  </si>
-  <si>
-    <t>13/10/2018 11:00</t>
+    <t>Jotham E</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>TESTING4</t>
+  </si>
+  <si>
+    <t>Jotham D</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>TESTING6</t>
+  </si>
+  <si>
+    <t>Jotham F</t>
+  </si>
+  <si>
+    <t>2M</t>
   </si>
   <si>
     <t>TESTING2</t>
   </si>
   <si>
-    <t>TESTING6</t>
-  </si>
-  <si>
-    <t>13/10/2018 11:19</t>
-  </si>
-  <si>
-    <t>T0123456A</t>
-  </si>
-  <si>
-    <t>TESTING4</t>
-  </si>
-  <si>
-    <t>13/10/2018 11:20</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>13/10/2018 11:23</t>
-  </si>
-  <si>
-    <t>13/10/2018 12:07</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>13/10/2018 22:39</t>
-  </si>
-  <si>
-    <t>31/10/2018 20:23</t>
+    <t>Jotham B</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>TESTING10</t>
+  </si>
+  <si>
+    <t>Jotham J</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <t>TESTING7</t>
+  </si>
+  <si>
+    <t>Jotham G</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>04/11/2018 16:45</t>
+  </si>
+  <si>
+    <t>TESTING8</t>
+  </si>
+  <si>
+    <t>Jotham H</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>TESTING9</t>
+  </si>
+  <si>
+    <t>Jotham I</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>01/11/2018 22:39</t>
+  </si>
+  <si>
+    <t>Jotham</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:11</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:23</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:24</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:25</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:28</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:37</t>
+  </si>
+  <si>
+    <t>04/11/2018 17:38</t>
+  </si>
+  <si>
+    <t>04/11/2018 20:27</t>
+  </si>
+  <si>
+    <t>04/11/2018 20:36</t>
+  </si>
+  <si>
+    <t>04/11/2018 20:39</t>
+  </si>
+  <si>
+    <t>05/11/2018 22:00</t>
+  </si>
+  <si>
+    <t>05/11/2018 22:05</t>
   </si>
 </sst>
 </file>
@@ -409,154 +490,279 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18.6640625"/>
     <col customWidth="1" max="2" min="2" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="42.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="n"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="n"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="n"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="n"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="n"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="n"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="n"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="n"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="n"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="n"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="n"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="n"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="n"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="n"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="n"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="n"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="n"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="n"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="n"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="n"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="n"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="n"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="n"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="n"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="n"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="n"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="n"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="n"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="n"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="n"/>
     </row>
   </sheetData>
@@ -571,282 +777,358 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18.6640625"/>
     <col customWidth="1" max="2" min="2" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="42.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="n"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="n"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="n"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="n"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="n"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="n"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="n"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="n"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="n"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="n"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="n"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="n"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="n"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="n"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="n"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="n"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="n"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="n"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="n"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="n"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="n"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="n"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="n"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="n"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="n"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="n"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="n"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="n"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="n"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="n"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="n"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="n"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="n"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="n"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Latest Version/Assets/Data Log.xlsx
+++ b/Latest Version/Assets/Data Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jotham\Documents\Git Repos\Earlyve-System\Latest Version\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B0625-D485-4C38-9F49-36E60F26C840}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1413A7-59CE-4770-A4AA-31863C187977}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>3D</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>MRT Breakdown</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Latest Version/Assets/Data Log.xlsx
+++ b/Latest Version/Assets/Data Log.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jotham\Documents\Git Repos\Earlyve-System\Latest Version\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1413A7-59CE-4770-A4AA-31863C187977}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Late" sheetId="1" r:id="rId1"/>
-    <sheet name="Early Leave" sheetId="2" r:id="rId2"/>
+    <sheet name="Late" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Early Leave" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Datetime</t>
   </si>
@@ -81,35 +75,56 @@
   </si>
   <si>
     <t>MRT Breakdown</t>
+  </si>
+  <si>
+    <t>09/01/2019 17:59</t>
+  </si>
+  <si>
+    <t>Testing new changes</t>
+  </si>
+  <si>
+    <t>09/01/2019 18:05</t>
+  </si>
+  <si>
+    <t>TESTING2</t>
+  </si>
+  <si>
+    <t>Jotham B</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>Testing formatting change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,26 +140,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -410,22 +416,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="18.6640625"/>
+    <col customWidth="1" max="2" min="2" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="42.109375"/>
+    <col customWidth="1" max="5" min="5" width="50.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,131 +452,135 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="n"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="n"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="18.6640625"/>
+    <col customWidth="1" max="2" min="2" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="42.109375"/>
+    <col customWidth="1" max="5" min="5" width="50.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -600,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -634,149 +648,177 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="n"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="n"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="n"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="n"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="n"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="n"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="n"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="n"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="n"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="n"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="n"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="n"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="n"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="n"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="n"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="n"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="n"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>